--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt1-Fzd9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt1-Fzd9.xlsx
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H2">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I2">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J2">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7517265</v>
+        <v>0.976531</v>
       </c>
       <c r="N2">
-        <v>1.503453</v>
+        <v>1.953062</v>
       </c>
       <c r="O2">
-        <v>0.3430414969595709</v>
+        <v>0.3681359341666424</v>
       </c>
       <c r="P2">
-        <v>0.2862361877440628</v>
+        <v>0.3330144816631303</v>
       </c>
       <c r="Q2">
-        <v>0.14827692453525</v>
+        <v>0.0285483955195</v>
       </c>
       <c r="R2">
-        <v>0.593107698141</v>
+        <v>0.114193582078</v>
       </c>
       <c r="S2">
-        <v>0.2891339185129332</v>
+        <v>0.1630387584913719</v>
       </c>
       <c r="T2">
-        <v>0.2236801215400774</v>
+        <v>0.1153517167269653</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H3">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I3">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J3">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.777787</v>
       </c>
       <c r="O3">
-        <v>0.1183112992982128</v>
+        <v>0.09773758465004194</v>
       </c>
       <c r="P3">
-        <v>0.1480796444962971</v>
+        <v>0.1326196171188222</v>
       </c>
       <c r="Q3">
-        <v>0.05113910635649999</v>
+        <v>0.007579404683833332</v>
       </c>
       <c r="R3">
-        <v>0.306834638139</v>
+        <v>0.045476428103</v>
       </c>
       <c r="S3">
-        <v>0.09971915897533599</v>
+        <v>0.04328568058796178</v>
       </c>
       <c r="T3">
-        <v>0.1157172792846149</v>
+        <v>0.04593764340195865</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H4">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I4">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J4">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1423686666666667</v>
+        <v>0.127556</v>
       </c>
       <c r="N4">
-        <v>0.427106</v>
+        <v>0.382668</v>
       </c>
       <c r="O4">
-        <v>0.06496825711674592</v>
+        <v>0.04808648902959583</v>
       </c>
       <c r="P4">
-        <v>0.08131494180570706</v>
+        <v>0.06524830531189832</v>
       </c>
       <c r="Q4">
-        <v>0.028082005947</v>
+        <v>0.003729035882</v>
       </c>
       <c r="R4">
-        <v>0.168492035682</v>
+        <v>0.022374215292</v>
       </c>
       <c r="S4">
-        <v>0.05475875929183679</v>
+        <v>0.0212963765391221</v>
       </c>
       <c r="T4">
-        <v>0.06354380349136041</v>
+        <v>0.02260113131916671</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H5">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I5">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J5">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5698544999999999</v>
+        <v>1.116584</v>
       </c>
       <c r="N5">
-        <v>1.139709</v>
+        <v>2.233168</v>
       </c>
       <c r="O5">
-        <v>0.260046360916035</v>
+        <v>0.420933584203191</v>
       </c>
       <c r="P5">
-        <v>0.2169844746045257</v>
+        <v>0.380775051681252</v>
       </c>
       <c r="Q5">
-        <v>0.11240294534325</v>
+        <v>0.032642774948</v>
       </c>
       <c r="R5">
-        <v>0.449611781373</v>
+        <v>0.130571099792</v>
       </c>
       <c r="S5">
-        <v>0.2191811311257861</v>
+        <v>0.1864215975850537</v>
       </c>
       <c r="T5">
-        <v>0.1695631640232984</v>
+        <v>0.1318953328361945</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H6">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I6">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J6">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2970403333333334</v>
+        <v>0.03536566666666666</v>
       </c>
       <c r="N6">
-        <v>0.8911210000000001</v>
+        <v>0.106097</v>
       </c>
       <c r="O6">
-        <v>0.1355508427653364</v>
+        <v>0.01333226772704545</v>
       </c>
       <c r="P6">
-        <v>0.1696568352044773</v>
+        <v>0.01809048430670052</v>
       </c>
       <c r="Q6">
-        <v>0.0585907601895</v>
+        <v>0.001033897582166667</v>
       </c>
       <c r="R6">
-        <v>0.351544561137</v>
+        <v>0.006203385493</v>
       </c>
       <c r="S6">
-        <v>0.1142495781817649</v>
+        <v>0.005904548228937974</v>
       </c>
       <c r="T6">
-        <v>0.1325788392366873</v>
+        <v>0.006266299323616373</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H7">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I7">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J7">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.171105</v>
+        <v>0.137338</v>
       </c>
       <c r="N7">
-        <v>0.513315</v>
+        <v>0.412014</v>
       </c>
       <c r="O7">
-        <v>0.07808174294409918</v>
+        <v>0.05177414022348326</v>
       </c>
       <c r="P7">
-        <v>0.09772791614493011</v>
+        <v>0.07025205991819664</v>
       </c>
       <c r="Q7">
-        <v>0.03375020459249999</v>
+        <v>0.004015007760999999</v>
       </c>
       <c r="R7">
-        <v>0.202501227555</v>
+        <v>0.024090046566</v>
       </c>
       <c r="S7">
-        <v>0.06581151406416486</v>
+        <v>0.02292955063760192</v>
       </c>
       <c r="T7">
-        <v>0.07636977117897588</v>
+        <v>0.02433436430361345</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.110328</v>
       </c>
       <c r="I8">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J8">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7517265</v>
+        <v>0.976531</v>
       </c>
       <c r="N8">
-        <v>1.503453</v>
+        <v>1.953062</v>
       </c>
       <c r="O8">
-        <v>0.3430414969595709</v>
+        <v>0.3681359341666424</v>
       </c>
       <c r="P8">
-        <v>0.2862361877440628</v>
+        <v>0.3330144816631303</v>
       </c>
       <c r="Q8">
-        <v>0.027645493764</v>
+        <v>0.035912904056</v>
       </c>
       <c r="R8">
-        <v>0.165872962584</v>
+        <v>0.215477424336</v>
       </c>
       <c r="S8">
-        <v>0.05390757844663776</v>
+        <v>0.2050971756752704</v>
       </c>
       <c r="T8">
-        <v>0.06255606620398546</v>
+        <v>0.217662764936165</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.110328</v>
       </c>
       <c r="I9">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J9">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>0.777787</v>
       </c>
       <c r="O9">
-        <v>0.1183112992982128</v>
+        <v>0.09773758465004194</v>
       </c>
       <c r="P9">
-        <v>0.1480796444962971</v>
+        <v>0.1326196171188222</v>
       </c>
       <c r="Q9">
         <v>0.009534631570666665</v>
@@ -1013,10 +1013,10 @@
         <v>0.085811684136</v>
       </c>
       <c r="S9">
-        <v>0.01859214032287676</v>
+        <v>0.05445190406208016</v>
       </c>
       <c r="T9">
-        <v>0.03236236521168221</v>
+        <v>0.08668197371686354</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.110328</v>
       </c>
       <c r="I10">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J10">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1423686666666667</v>
+        <v>0.127556</v>
       </c>
       <c r="N10">
-        <v>0.427106</v>
+        <v>0.382668</v>
       </c>
       <c r="O10">
-        <v>0.06496825711674592</v>
+        <v>0.04808648902959583</v>
       </c>
       <c r="P10">
-        <v>0.08131494180570706</v>
+        <v>0.06524830531189832</v>
       </c>
       <c r="Q10">
-        <v>0.005235750085333333</v>
+        <v>0.004690999455999999</v>
       </c>
       <c r="R10">
-        <v>0.04712175076799999</v>
+        <v>0.042218995104</v>
       </c>
       <c r="S10">
-        <v>0.01020949782490913</v>
+        <v>0.02679011249047373</v>
       </c>
       <c r="T10">
-        <v>0.01777113831434665</v>
+        <v>0.04264717399273161</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.110328</v>
       </c>
       <c r="I11">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J11">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.5698544999999999</v>
+        <v>1.116584</v>
       </c>
       <c r="N11">
-        <v>1.139709</v>
+        <v>2.233168</v>
       </c>
       <c r="O11">
-        <v>0.260046360916035</v>
+        <v>0.420933584203191</v>
       </c>
       <c r="P11">
-        <v>0.2169844746045257</v>
+        <v>0.380775051681252</v>
       </c>
       <c r="Q11">
-        <v>0.020956969092</v>
+        <v>0.041063493184</v>
       </c>
       <c r="R11">
-        <v>0.125741814552</v>
+        <v>0.246380959104</v>
       </c>
       <c r="S11">
-        <v>0.04086522979024889</v>
+        <v>0.2345119866181373</v>
       </c>
       <c r="T11">
-        <v>0.04742131058122739</v>
+        <v>0.2488797188450575</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>0.110328</v>
       </c>
       <c r="I12">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J12">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.2970403333333334</v>
+        <v>0.03536566666666666</v>
       </c>
       <c r="N12">
-        <v>0.8911210000000001</v>
+        <v>0.106097</v>
       </c>
       <c r="O12">
-        <v>0.1355508427653364</v>
+        <v>0.01333226772704545</v>
       </c>
       <c r="P12">
-        <v>0.1696568352044773</v>
+        <v>0.01809048430670052</v>
       </c>
       <c r="Q12">
-        <v>0.01092395529866667</v>
+        <v>0.001300607757333333</v>
       </c>
       <c r="R12">
-        <v>0.09831559768799999</v>
+        <v>0.011705469816</v>
       </c>
       <c r="S12">
-        <v>0.02130126458357142</v>
+        <v>0.007427719498107473</v>
       </c>
       <c r="T12">
-        <v>0.03707799596778998</v>
+        <v>0.01182418498308415</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.110328</v>
       </c>
       <c r="I13">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J13">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.171105</v>
+        <v>0.137338</v>
       </c>
       <c r="N13">
-        <v>0.513315</v>
+        <v>0.412014</v>
       </c>
       <c r="O13">
-        <v>0.07808174294409918</v>
+        <v>0.05177414022348326</v>
       </c>
       <c r="P13">
-        <v>0.09772791614493011</v>
+        <v>0.07025205991819664</v>
       </c>
       <c r="Q13">
-        <v>0.006292557479999999</v>
+        <v>0.005050742287999999</v>
       </c>
       <c r="R13">
-        <v>0.05663301731999999</v>
+        <v>0.045456680592</v>
       </c>
       <c r="S13">
-        <v>0.01227022887993433</v>
+        <v>0.02884458958588134</v>
       </c>
       <c r="T13">
-        <v>0.02135814496595424</v>
+        <v>0.04591769561458318</v>
       </c>
     </row>
   </sheetData>
